--- a/inst/rsc/outlook_Microsoft365R.xlsx
+++ b/inst/rsc/outlook_Microsoft365R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\matu\work\ToDo\univ\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\matu\work\ToDo\automater\inst\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0817DB1-918E-4FA6-99B9-DA02C907C33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027A3FE9-7559-4869-9207-0859645173EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46605" yWindow="8670" windowWidth="18195" windowHeight="21585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>to</t>
     <phoneticPr fontId="1"/>
@@ -47,46 +47,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>matutosi@gmail.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>matutosi@konan-wu.ac.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数行のファイル
-テスト</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test2
-途中に"'があっても大丈夫か?</t>
-    <rPh sb="6" eb="8">
-      <t>トチュウ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>attachment</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>outlook.xlsx</t>
+    <t>test@test.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cc@test.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bcc@test.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a test mail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>When this mail is received, the test is successed!
+Congraturations!</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -130,14 +112,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,71 +401,58 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/inst/rsc/outlook_Microsoft365R.xlsx
+++ b/inst/rsc/outlook_Microsoft365R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\matu\work\ToDo\automater\inst\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027A3FE9-7559-4869-9207-0859645173EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAB6374-FA0A-4E47-ADC7-34D8ADEA0777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46605" yWindow="8670" windowWidth="18195" windowHeight="21585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>to</t>
     <phoneticPr fontId="1"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>attachment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test@test.co.jp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -69,6 +65,30 @@
   <si>
     <t>When this mail is received, the test is successed!
 Congraturations!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test2@test.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test1@test.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a test2 mail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outlook_Microsoft365R.rsc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This mail will be saved in draft.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>send</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -112,12 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -398,23 +419,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="6" max="6" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,26 +455,52 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/inst/rsc/outlook_Microsoft365R.xlsx
+++ b/inst/rsc/outlook_Microsoft365R.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\matu\work\ToDo\automater\inst\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAB6374-FA0A-4E47-ADC7-34D8ADEA0777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487DACBA-8FE7-4906-A75A-83410A36E3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46605" yWindow="8670" windowWidth="21270" windowHeight="21585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>to</t>
     <phoneticPr fontId="1"/>
@@ -48,14 +51,6 @@
   </si>
   <si>
     <t>attachment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cc@test.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bcc@test.co.jp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -68,27 +63,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>test2@test.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test1@test.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>This is a test2 mail</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>outlook_Microsoft365R.rsc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>This mail will be saved in draft.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>send</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matutosi@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d:/outlook_Microsoft365R.rsc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -132,13 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -419,90 +413,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="3"/>
+    <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inst/rsc/outlook_Microsoft365R.xlsx
+++ b/inst/rsc/outlook_Microsoft365R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\matu\work\ToDo\automater\inst\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487DACBA-8FE7-4906-A75A-83410A36E3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670033F9-9A6F-44AA-B0EC-3C4DDC5DD43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46605" yWindow="8670" windowWidth="21270" windowHeight="21585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57255" yWindow="5220" windowWidth="21270" windowHeight="21585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,15 +75,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>matutosi@gmail.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>test3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>d:/outlook_Microsoft365R.rsc</t>
+    <t>outlook_Microsoft365R.rsc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test@test.com</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -417,7 +417,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -467,7 +467,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/inst/rsc/outlook_Microsoft365R.xlsx
+++ b/inst/rsc/outlook_Microsoft365R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\matu\work\ToDo\automater\inst\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670033F9-9A6F-44AA-B0EC-3C4DDC5DD43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C701D4-7787-4A7E-8D47-B9C4110D2482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57255" yWindow="5220" windowWidth="21270" windowHeight="21585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25305" yWindow="1515" windowWidth="21270" windowHeight="21585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/inst/rsc/outlook_Microsoft365R.xlsx
+++ b/inst/rsc/outlook_Microsoft365R.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\matu\work\ToDo\automater\inst\rsc\"/>
     </mc:Choice>
@@ -16,11 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet1!$A$1:$Z$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -91,6 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,18 +417,18 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen" xSplit="1.0"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="13.375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="14.625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="18.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="32.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="28.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
